--- a/other2/thomas/usaco/USACO21FebGoldPro3CounttheCows/CounttheCows.xlsx
+++ b/other2/thomas/usaco/USACO21FebGoldPro3CounttheCows/CounttheCows.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\competitive-programming\other2\thomas\usaco\USACO21FebGoldPro3CounttheCows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\other2\thomas\usaco\USACO21FebGoldPro3CounttheCows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426ACD59-C407-4602-8580-481352BEB88C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9107A903-AC0C-40B6-A02E-BC36CA0A1582}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9795" yWindow="0" windowWidth="37005" windowHeight="18285" activeTab="1" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
+    <workbookView xWindow="11200" yWindow="0" windowWidth="37010" windowHeight="18290" activeTab="1" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -635,6 +634,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC000"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FFFF0000"/>
     </mruColors>
@@ -823,6 +823,293 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69224</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>118057</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>118056</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACDA3130-B72E-47CA-8C86-3373082F6045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1308816" y="256147"/>
+          <a:ext cx="403002" cy="407472"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60817</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>96413</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEDB7CEF-229E-47D4-ABBC-7D19DE8397A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2185831" y="263660"/>
+          <a:ext cx="389765" cy="391016"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3041</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>173507</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>182451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95CBF177-BEC1-4840-839E-9BFF66C6B000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1242633" y="1109373"/>
+          <a:ext cx="347550" cy="355599"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1610</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>182451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD61E853-D5B3-4627-A871-3C5941A9AC1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1241202" y="923703"/>
+          <a:ext cx="529643" cy="541269"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9124</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175295</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D10BE4-EB3F-45D4-AF58-484A3BBC519B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1248716" y="1290752"/>
+          <a:ext cx="166171" cy="179586"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -831,15 +1118,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>81461</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>89807</xdr:rowOff>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>124069</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>125223</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>84760</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101034</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -854,8 +1141,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="262890" y="2720521"/>
-          <a:ext cx="405465" cy="416416"/>
+          <a:off x="263071" y="638024"/>
+          <a:ext cx="713713" cy="742081"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -865,7 +1152,7 @@
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1073,6 +1360,410 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>73719</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>48804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>44296</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="梯形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A7A8D7C-A184-490D-80B7-32E2A10EBE98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13484750">
+          <a:off x="3463409" y="2975852"/>
+          <a:ext cx="2289839" cy="361380"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 102796"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="36863"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>24190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>3024</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>178405</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="直角三角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A67785A-322C-4151-BE2E-EA4DDA4DFCD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933976" y="2766785"/>
+          <a:ext cx="1064381" cy="1064382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="29020"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57453</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>99786</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A637D6-CC49-4AAC-95AC-9118BDA0BE06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3803953" y="2618620"/>
+          <a:ext cx="1291166" cy="1318380"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>74928</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>45505</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="梯形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8386A223-D709-40B4-80F0-2A10BCDC2F20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13484750">
+          <a:off x="5427071" y="2961942"/>
+          <a:ext cx="2111434" cy="361380"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 98673"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="36863"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>13305</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>7257</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>182639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="直角三角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52136CC6-9EF7-4B2E-A91B-E39645B430AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5900662" y="2771019"/>
+          <a:ext cx="1064381" cy="1064382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="29020"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>79830</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>122162</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26509829-8EDD-412B-8BF4-BE6AB9554349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5788782" y="2650067"/>
+          <a:ext cx="1291166" cy="1318380"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1080,16 +1771,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>90148</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>50733</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>168931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>65690</xdr:colOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>91966</xdr:rowOff>
+      <xdr:rowOff>175173</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1104,8 +1795,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2067407" y="3094310"/>
-          <a:ext cx="1814852" cy="1891535"/>
+          <a:off x="10968354" y="3085552"/>
+          <a:ext cx="1771060" cy="1832414"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1137,16 +1828,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>118243</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85398</xdr:rowOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>52554</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>72259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>111672</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>72259</xdr:rowOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>45983</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>59120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1161,8 +1852,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="624053" y="1589691"/>
-          <a:ext cx="1280947" cy="1307223"/>
+          <a:off x="11329278" y="2625397"/>
+          <a:ext cx="1250291" cy="1265620"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1195,15 +1886,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>57776</xdr:colOff>
+      <xdr:colOff>88433</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>146028</xdr:rowOff>
+      <xdr:rowOff>84719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>21348</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>153714</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>87586</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1218,8 +1909,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="563586" y="1650321"/>
-          <a:ext cx="3274331" cy="3397272"/>
+          <a:off x="592054" y="1543029"/>
+          <a:ext cx="2871980" cy="2937005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1671,20 +2362,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3EF6C4-8513-4921-81D3-E9CBC8908F51}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="355" zoomScaleNormal="355" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="2.375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="2.375" style="3"/>
+    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="2.33203125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="2.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -1705,7 +2396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1724,8 +2415,11 @@
       <c r="H2" s="32"/>
       <c r="I2" s="5"/>
       <c r="J2" s="34"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M2" s="32"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1744,8 +2438,11 @@
       <c r="H3" s="7"/>
       <c r="I3" s="33"/>
       <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="7"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1764,10 +2461,29 @@
       <c r="H4" s="36"/>
       <c r="I4" s="12"/>
       <c r="J4" s="35"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="36"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G5" s="1"/>
     </row>
+    <row r="6" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="32"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H7" s="7"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="36"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1778,20 +2494,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D85526-8EDF-4405-92FF-0835C9A1A112}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:AP22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="2.375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="2.375" style="3"/>
+    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="2.33203125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="2.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -1820,7 +2536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1849,7 +2565,7 @@
       <c r="T2" s="44"/>
       <c r="U2" s="45"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1882,7 +2598,7 @@
       </c>
       <c r="U3" s="51"/>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1911,7 +2627,7 @@
       <c r="T4" s="56"/>
       <c r="U4" s="57"/>
     </row>
-    <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1934,7 +2650,7 @@
       <c r="T5" s="47"/>
       <c r="U5" s="48"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1959,7 +2675,7 @@
       <c r="T6" s="53"/>
       <c r="U6" s="54"/>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1982,7 +2698,7 @@
       <c r="T7" s="59"/>
       <c r="U7" s="60"/>
     </row>
-    <row r="8" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2005,7 +2721,7 @@
       <c r="T8" s="44"/>
       <c r="U8" s="45"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2032,7 +2748,7 @@
       </c>
       <c r="U9" s="51"/>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2055,8 +2771,8 @@
       <c r="T10" s="56"/>
       <c r="U10" s="57"/>
     </row>
-    <row r="11" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -2113,7 +2829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -2138,8 +2854,26 @@
       <c r="S13" s="4"/>
       <c r="T13" s="5"/>
       <c r="U13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W13" s="32"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="6"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="43"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="45"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2164,8 +2898,30 @@
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
       <c r="U14" s="9"/>
-    </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="7"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="9"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="50">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="52"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="50">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="51"/>
+    </row>
+    <row r="15" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2190,8 +2946,26 @@
       <c r="S15" s="11"/>
       <c r="T15" s="12"/>
       <c r="U15" s="13"/>
-    </row>
-    <row r="16" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="W15" s="36"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="13"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="58"/>
+      <c r="AL15" s="59"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="55"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="57"/>
+    </row>
+    <row r="16" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -2216,8 +2990,26 @@
       <c r="S16" s="14"/>
       <c r="T16" s="15"/>
       <c r="U16" s="16"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W16" s="14"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="16"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="43"/>
+      <c r="AL16" s="44"/>
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="47"/>
+      <c r="AP16" s="48"/>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -2242,8 +3034,28 @@
       <c r="S17" s="17"/>
       <c r="T17" s="18"/>
       <c r="U17" s="19"/>
-    </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="17"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="19"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="50">
+        <v>3</v>
+      </c>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="52"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="54"/>
+    </row>
+    <row r="18" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -2268,8 +3080,26 @@
       <c r="S18" s="20"/>
       <c r="T18" s="21"/>
       <c r="U18" s="22"/>
-    </row>
-    <row r="19" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="W18" s="20"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="22"/>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="55"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="57"/>
+      <c r="AN18" s="58"/>
+      <c r="AO18" s="59"/>
+      <c r="AP18" s="60"/>
+    </row>
+    <row r="19" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -2294,8 +3124,26 @@
       <c r="S19" s="4"/>
       <c r="T19" s="5"/>
       <c r="U19" s="6"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W19" s="4"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="6"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="43"/>
+      <c r="AO19" s="44"/>
+      <c r="AP19" s="45"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>7</v>
       </c>
@@ -2320,8 +3168,30 @@
       <c r="S20" s="7"/>
       <c r="T20" s="8"/>
       <c r="U20" s="9"/>
-    </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W20" s="7"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="9"/>
+      <c r="AH20" s="49"/>
+      <c r="AI20" s="50">
+        <v>4</v>
+      </c>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="50">
+        <v>5</v>
+      </c>
+      <c r="AP20" s="51"/>
+    </row>
+    <row r="21" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -2346,8 +3216,26 @@
       <c r="S21" s="11"/>
       <c r="T21" s="12"/>
       <c r="U21" s="13"/>
-    </row>
-    <row r="22" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="W21" s="11"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="13"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="57"/>
+      <c r="AK21" s="58"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="60"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="56"/>
+      <c r="AP21" s="57"/>
+    </row>
+    <row r="22" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="L22" s="1"/>
     </row>
   </sheetData>
@@ -2363,17 +3251,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B23B71-1DC1-4023-BDA5-AF5388257871}">
   <dimension ref="B2:BF30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AQ35" sqref="AQ35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="29" width="2.375" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="2.375" style="3"/>
+    <col min="2" max="2" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="29" width="2.33203125" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="2.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="1">
         <v>0</v>
       </c>
@@ -2456,7 +3346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -2527,7 +3417,7 @@
       <c r="BE3" s="37"/>
       <c r="BF3" s="6"/>
     </row>
-    <row r="4" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2598,7 +3488,7 @@
       <c r="BE4" s="8"/>
       <c r="BF4" s="39"/>
     </row>
-    <row r="5" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -2669,7 +3559,7 @@
       <c r="BE5" s="8"/>
       <c r="BF5" s="39"/>
     </row>
-    <row r="6" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -2728,7 +3618,7 @@
       <c r="BE6" s="8"/>
       <c r="BF6" s="39"/>
     </row>
-    <row r="7" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -2787,7 +3677,7 @@
       <c r="BE7" s="8"/>
       <c r="BF7" s="39"/>
     </row>
-    <row r="8" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -2846,7 +3736,7 @@
       <c r="BE8" s="8"/>
       <c r="BF8" s="39"/>
     </row>
-    <row r="9" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -2905,7 +3795,7 @@
       <c r="BE9" s="8"/>
       <c r="BF9" s="39"/>
     </row>
-    <row r="10" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -2964,7 +3854,7 @@
       <c r="BE10" s="8"/>
       <c r="BF10" s="39"/>
     </row>
-    <row r="11" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -3023,7 +3913,7 @@
       <c r="BE11" s="40"/>
       <c r="BF11" s="13"/>
     </row>
-    <row r="12" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -3082,7 +3972,7 @@
       <c r="BE12" s="15"/>
       <c r="BF12" s="16"/>
     </row>
-    <row r="13" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -3141,7 +4031,7 @@
       <c r="BE13" s="18"/>
       <c r="BF13" s="19"/>
     </row>
-    <row r="14" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -3200,7 +4090,7 @@
       <c r="BE14" s="18"/>
       <c r="BF14" s="19"/>
     </row>
-    <row r="15" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -3259,7 +4149,7 @@
       <c r="BE15" s="18"/>
       <c r="BF15" s="19"/>
     </row>
-    <row r="16" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -3318,7 +4208,7 @@
       <c r="BE16" s="18"/>
       <c r="BF16" s="19"/>
     </row>
-    <row r="17" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -3377,7 +4267,7 @@
       <c r="BE17" s="18"/>
       <c r="BF17" s="19"/>
     </row>
-    <row r="18" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -3436,7 +4326,7 @@
       <c r="BE18" s="18"/>
       <c r="BF18" s="19"/>
     </row>
-    <row r="19" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -3495,7 +4385,7 @@
       <c r="BE19" s="18"/>
       <c r="BF19" s="19"/>
     </row>
-    <row r="20" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -3554,7 +4444,7 @@
       <c r="BE20" s="21"/>
       <c r="BF20" s="22"/>
     </row>
-    <row r="21" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -3613,7 +4503,7 @@
       <c r="BE21" s="37"/>
       <c r="BF21" s="6"/>
     </row>
-    <row r="22" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -3672,7 +4562,7 @@
       <c r="BE22" s="8"/>
       <c r="BF22" s="39"/>
     </row>
-    <row r="23" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -3731,7 +4621,7 @@
       <c r="BE23" s="8"/>
       <c r="BF23" s="39"/>
     </row>
-    <row r="24" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -3790,7 +4680,7 @@
       <c r="BE24" s="8"/>
       <c r="BF24" s="39"/>
     </row>
-    <row r="25" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>22</v>
       </c>
@@ -3849,7 +4739,7 @@
       <c r="BE25" s="8"/>
       <c r="BF25" s="39"/>
     </row>
-    <row r="26" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -3908,7 +4798,7 @@
       <c r="BE26" s="8"/>
       <c r="BF26" s="39"/>
     </row>
-    <row r="27" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -3967,7 +4857,7 @@
       <c r="BE27" s="8"/>
       <c r="BF27" s="39"/>
     </row>
-    <row r="28" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -4026,7 +4916,7 @@
       <c r="BE28" s="8"/>
       <c r="BF28" s="39"/>
     </row>
-    <row r="29" spans="2:58" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -4085,7 +4975,7 @@
       <c r="BE29" s="40"/>
       <c r="BF29" s="13"/>
     </row>
-    <row r="30" spans="2:58" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4103,14 +4993,14 @@
       <selection activeCell="BO34" sqref="BO34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="28" width="2.375" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="2.375" style="3"/>
+    <col min="1" max="1" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="28" width="2.33203125" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="2.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -4355,7 +5245,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4405,7 +5295,7 @@
       <c r="CC2" s="5"/>
       <c r="CD2" s="6"/>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4455,7 +5345,7 @@
       <c r="CC3" s="8"/>
       <c r="CD3" s="9"/>
     </row>
-    <row r="4" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4505,7 +5395,7 @@
       <c r="CC4" s="12"/>
       <c r="CD4" s="13"/>
     </row>
-    <row r="5" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4555,7 +5445,7 @@
       <c r="CC5" s="10"/>
       <c r="CD5" s="9"/>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4605,7 +5495,7 @@
       <c r="CC6" s="10"/>
       <c r="CD6" s="9"/>
     </row>
-    <row r="7" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4655,7 +5545,7 @@
       <c r="CC7" s="10"/>
       <c r="CD7" s="9"/>
     </row>
-    <row r="8" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4705,7 +5595,7 @@
       <c r="CC8" s="5"/>
       <c r="CD8" s="6"/>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4755,7 +5645,7 @@
       <c r="CC9" s="8"/>
       <c r="CD9" s="9"/>
     </row>
-    <row r="10" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4805,7 +5695,7 @@
       <c r="CC10" s="12"/>
       <c r="CD10" s="13"/>
     </row>
-    <row r="11" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4828,7 +5718,7 @@
       <c r="BT11" s="5"/>
       <c r="BU11" s="6"/>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4851,7 +5741,7 @@
       <c r="BT12" s="8"/>
       <c r="BU12" s="9"/>
     </row>
-    <row r="13" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4874,7 +5764,7 @@
       <c r="BT13" s="12"/>
       <c r="BU13" s="13"/>
     </row>
-    <row r="14" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4897,7 +5787,7 @@
       <c r="BT14" s="10"/>
       <c r="BU14" s="9"/>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4920,7 +5810,7 @@
       <c r="BT15" s="10"/>
       <c r="BU15" s="9"/>
     </row>
-    <row r="16" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4943,7 +5833,7 @@
       <c r="BT16" s="10"/>
       <c r="BU16" s="9"/>
     </row>
-    <row r="17" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4966,7 +5856,7 @@
       <c r="BT17" s="5"/>
       <c r="BU17" s="6"/>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4989,7 +5879,7 @@
       <c r="BT18" s="8"/>
       <c r="BU18" s="9"/>
     </row>
-    <row r="19" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5012,7 +5902,7 @@
       <c r="BT19" s="12"/>
       <c r="BU19" s="13"/>
     </row>
-    <row r="20" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5053,7 +5943,7 @@
       <c r="CC20" s="5"/>
       <c r="CD20" s="6"/>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5094,7 +5984,7 @@
       <c r="CC21" s="8"/>
       <c r="CD21" s="9"/>
     </row>
-    <row r="22" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5135,7 +6025,7 @@
       <c r="CC22" s="12"/>
       <c r="CD22" s="13"/>
     </row>
-    <row r="23" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5176,7 +6066,7 @@
       <c r="CC23" s="10"/>
       <c r="CD23" s="9"/>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5217,7 +6107,7 @@
       <c r="CC24" s="10"/>
       <c r="CD24" s="9"/>
     </row>
-    <row r="25" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5258,7 +6148,7 @@
       <c r="CC25" s="10"/>
       <c r="CD25" s="9"/>
     </row>
-    <row r="26" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5299,7 +6189,7 @@
       <c r="CC26" s="5"/>
       <c r="CD26" s="6"/>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5340,7 +6230,7 @@
       <c r="CC27" s="8"/>
       <c r="CD27" s="9"/>
     </row>
-    <row r="28" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5381,7 +6271,7 @@
       <c r="CC28" s="12"/>
       <c r="CD28" s="13"/>
     </row>
-    <row r="29" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5404,7 +6294,7 @@
       <c r="BB29" s="5"/>
       <c r="BC29" s="6"/>
     </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5427,7 +6317,7 @@
       <c r="BB30" s="8"/>
       <c r="BC30" s="9"/>
     </row>
-    <row r="31" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5450,7 +6340,7 @@
       <c r="BB31" s="12"/>
       <c r="BC31" s="13"/>
     </row>
-    <row r="32" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5473,7 +6363,7 @@
       <c r="BB32" s="10"/>
       <c r="BC32" s="9"/>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5496,7 +6386,7 @@
       <c r="BB33" s="10"/>
       <c r="BC33" s="9"/>
     </row>
-    <row r="34" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5519,7 +6409,7 @@
       <c r="BB34" s="10"/>
       <c r="BC34" s="9"/>
     </row>
-    <row r="35" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5542,7 +6432,7 @@
       <c r="BB35" s="5"/>
       <c r="BC35" s="6"/>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5565,7 +6455,7 @@
       <c r="BB36" s="8"/>
       <c r="BC36" s="9"/>
     </row>
-    <row r="37" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5588,7 +6478,7 @@
       <c r="BB37" s="12"/>
       <c r="BC37" s="13"/>
     </row>
-    <row r="38" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5602,7 +6492,7 @@
       <c r="AS38" s="5"/>
       <c r="AT38" s="6"/>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5616,7 +6506,7 @@
       <c r="AS39" s="8"/>
       <c r="AT39" s="9"/>
     </row>
-    <row r="40" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5630,7 +6520,7 @@
       <c r="AS40" s="12"/>
       <c r="AT40" s="13"/>
     </row>
-    <row r="41" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5644,7 +6534,7 @@
       <c r="AS41" s="10"/>
       <c r="AT41" s="9"/>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5658,7 +6548,7 @@
       <c r="AS42" s="10"/>
       <c r="AT42" s="9"/>
     </row>
-    <row r="43" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5672,7 +6562,7 @@
       <c r="AS43" s="10"/>
       <c r="AT43" s="9"/>
     </row>
-    <row r="44" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5686,7 +6576,7 @@
       <c r="AS44" s="5"/>
       <c r="AT44" s="6"/>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5700,7 +6590,7 @@
       <c r="AS45" s="8"/>
       <c r="AT45" s="9"/>
     </row>
-    <row r="46" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5714,7 +6604,7 @@
       <c r="AS46" s="12"/>
       <c r="AT46" s="13"/>
     </row>
-    <row r="47" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:55" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5737,7 +6627,7 @@
       <c r="BB47" s="5"/>
       <c r="BC47" s="6"/>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5760,7 +6650,7 @@
       <c r="BB48" s="8"/>
       <c r="BC48" s="9"/>
     </row>
-    <row r="49" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5783,7 +6673,7 @@
       <c r="BB49" s="12"/>
       <c r="BC49" s="13"/>
     </row>
-    <row r="50" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5806,7 +6696,7 @@
       <c r="BB50" s="10"/>
       <c r="BC50" s="9"/>
     </row>
-    <row r="51" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5829,7 +6719,7 @@
       <c r="BB51" s="10"/>
       <c r="BC51" s="9"/>
     </row>
-    <row r="52" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5852,7 +6742,7 @@
       <c r="BB52" s="10"/>
       <c r="BC52" s="9"/>
     </row>
-    <row r="53" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5875,7 +6765,7 @@
       <c r="BB53" s="5"/>
       <c r="BC53" s="6"/>
     </row>
-    <row r="54" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5898,7 +6788,7 @@
       <c r="BB54" s="8"/>
       <c r="BC54" s="9"/>
     </row>
-    <row r="55" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5921,7 +6811,7 @@
       <c r="BB55" s="12"/>
       <c r="BC55" s="13"/>
     </row>
-    <row r="56" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5962,7 +6852,7 @@
       <c r="CC56" s="5"/>
       <c r="CD56" s="6"/>
     </row>
-    <row r="57" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6003,7 +6893,7 @@
       <c r="CC57" s="8"/>
       <c r="CD57" s="9"/>
     </row>
-    <row r="58" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6044,7 +6934,7 @@
       <c r="CC58" s="12"/>
       <c r="CD58" s="13"/>
     </row>
-    <row r="59" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6085,7 +6975,7 @@
       <c r="CC59" s="10"/>
       <c r="CD59" s="9"/>
     </row>
-    <row r="60" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6126,7 +7016,7 @@
       <c r="CC60" s="10"/>
       <c r="CD60" s="9"/>
     </row>
-    <row r="61" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6167,7 +7057,7 @@
       <c r="CC61" s="10"/>
       <c r="CD61" s="9"/>
     </row>
-    <row r="62" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6208,7 +7098,7 @@
       <c r="CC62" s="5"/>
       <c r="CD62" s="6"/>
     </row>
-    <row r="63" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6249,7 +7139,7 @@
       <c r="CC63" s="8"/>
       <c r="CD63" s="9"/>
     </row>
-    <row r="64" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6290,7 +7180,7 @@
       <c r="CC64" s="12"/>
       <c r="CD64" s="13"/>
     </row>
-    <row r="65" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6313,7 +7203,7 @@
       <c r="BT65" s="5"/>
       <c r="BU65" s="6"/>
     </row>
-    <row r="66" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6336,7 +7226,7 @@
       <c r="BT66" s="8"/>
       <c r="BU66" s="9"/>
     </row>
-    <row r="67" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6359,7 +7249,7 @@
       <c r="BT67" s="12"/>
       <c r="BU67" s="13"/>
     </row>
-    <row r="68" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6382,7 +7272,7 @@
       <c r="BT68" s="10"/>
       <c r="BU68" s="9"/>
     </row>
-    <row r="69" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6405,7 +7295,7 @@
       <c r="BT69" s="10"/>
       <c r="BU69" s="9"/>
     </row>
-    <row r="70" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6428,7 +7318,7 @@
       <c r="BT70" s="10"/>
       <c r="BU70" s="9"/>
     </row>
-    <row r="71" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6451,7 +7341,7 @@
       <c r="BT71" s="5"/>
       <c r="BU71" s="6"/>
     </row>
-    <row r="72" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6474,7 +7364,7 @@
       <c r="BT72" s="8"/>
       <c r="BU72" s="9"/>
     </row>
-    <row r="73" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6497,7 +7387,7 @@
       <c r="BT73" s="12"/>
       <c r="BU73" s="13"/>
     </row>
-    <row r="74" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6538,7 +7428,7 @@
       <c r="CC74" s="5"/>
       <c r="CD74" s="6"/>
     </row>
-    <row r="75" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6579,7 +7469,7 @@
       <c r="CC75" s="8"/>
       <c r="CD75" s="9"/>
     </row>
-    <row r="76" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6620,7 +7510,7 @@
       <c r="CC76" s="12"/>
       <c r="CD76" s="13"/>
     </row>
-    <row r="77" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6661,7 +7551,7 @@
       <c r="CC77" s="10"/>
       <c r="CD77" s="9"/>
     </row>
-    <row r="78" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6702,7 +7592,7 @@
       <c r="CC78" s="10"/>
       <c r="CD78" s="9"/>
     </row>
-    <row r="79" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6743,7 +7633,7 @@
       <c r="CC79" s="10"/>
       <c r="CD79" s="9"/>
     </row>
-    <row r="80" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6784,7 +7674,7 @@
       <c r="CC80" s="5"/>
       <c r="CD80" s="6"/>
     </row>
-    <row r="81" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6825,7 +7715,7 @@
       <c r="CC81" s="8"/>
       <c r="CD81" s="9"/>
     </row>
-    <row r="82" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:82" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6866,7 +7756,7 @@
       <c r="CC82" s="12"/>
       <c r="CD82" s="13"/>
     </row>
-    <row r="83" spans="1:82" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:82" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/other2/thomas/usaco/USACO21FebGoldPro3CounttheCows/CounttheCows.xlsx
+++ b/other2/thomas/usaco/USACO21FebGoldPro3CounttheCows/CounttheCows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\other2\thomas\usaco\USACO21FebGoldPro3CounttheCows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9107A903-AC0C-40B6-A02E-BC36CA0A1582}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ADEC0B-A315-408B-8DED-E6322B838B99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="0" windowWidth="37010" windowHeight="18290" activeTab="1" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
+    <workbookView xWindow="12600" yWindow="0" windowWidth="37010" windowHeight="18290" activeTab="1" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,8 +69,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,6 +89,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -437,12 +450,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -626,9 +642,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1764,6 +1790,271 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>51404</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="直角三角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8B0597-BDAF-42B3-8E36-7BC11D3008E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7722809" y="3707189"/>
+          <a:ext cx="1064381" cy="1064382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>6049</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>160263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>48382</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>51405</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA3045A-7BA5-4B4D-A550-45FD2162BBE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7499049" y="4181930"/>
+          <a:ext cx="1291166" cy="1318380"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>169130</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>126806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>2049</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147097</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="梯形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66CF29AE-E765-4F31-A481-D330B233245C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13484750">
+          <a:off x="7483725" y="2322092"/>
+          <a:ext cx="2330586" cy="383148"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 102796"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>36286</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>96762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>6048</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>39310</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="直角三角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76290106-F956-41B9-89FA-38FE8CA7FF46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886096" y="1375833"/>
+          <a:ext cx="504976" cy="489858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="29020"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2494,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D85526-8EDF-4405-92FF-0835C9A1A112}">
-  <dimension ref="A1:AP22"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10"/>
+      <selection activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2507,7 +2798,7 @@
     <col min="11" max="16384" width="2.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -2536,7 +2827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2565,7 +2856,7 @@
       <c r="T2" s="44"/>
       <c r="U2" s="45"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2598,7 +2889,7 @@
       </c>
       <c r="U3" s="51"/>
     </row>
-    <row r="4" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2627,7 +2918,7 @@
       <c r="T4" s="56"/>
       <c r="U4" s="57"/>
     </row>
-    <row r="5" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2650,7 +2941,7 @@
       <c r="T5" s="47"/>
       <c r="U5" s="48"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2675,7 +2966,7 @@
       <c r="T6" s="53"/>
       <c r="U6" s="54"/>
     </row>
-    <row r="7" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2698,7 +2989,7 @@
       <c r="T7" s="59"/>
       <c r="U7" s="60"/>
     </row>
-    <row r="8" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2721,7 +3012,7 @@
       <c r="T8" s="44"/>
       <c r="U8" s="45"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2748,7 +3039,7 @@
       </c>
       <c r="U9" s="51"/>
     </row>
-    <row r="10" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2771,8 +3062,8 @@
       <c r="T10" s="56"/>
       <c r="U10" s="57"/>
     </row>
-    <row r="11" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -2829,7 +3120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -2872,8 +3163,17 @@
       <c r="AN13" s="43"/>
       <c r="AO13" s="44"/>
       <c r="AP13" s="45"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="34"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="6"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2920,8 +3220,17 @@
         <v>2</v>
       </c>
       <c r="AP14" s="51"/>
-    </row>
-    <row r="15" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="33"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="17"/>
+      <c r="AW14" s="18"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="9"/>
+    </row>
+    <row r="15" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2964,8 +3273,17 @@
       <c r="AN15" s="55"/>
       <c r="AO15" s="56"/>
       <c r="AP15" s="57"/>
-    </row>
-    <row r="16" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="35"/>
+      <c r="AV15" s="20"/>
+      <c r="AW15" s="21"/>
+      <c r="AX15" s="22"/>
+      <c r="AY15" s="11"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="13"/>
+    </row>
+    <row r="16" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -3008,8 +3326,17 @@
       <c r="AN16" s="46"/>
       <c r="AO16" s="47"/>
       <c r="AP16" s="48"/>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS16" s="61"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="15"/>
+      <c r="BA16" s="16"/>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -3054,8 +3381,17 @@
       <c r="AN17" s="52"/>
       <c r="AO17" s="53"/>
       <c r="AP17" s="54"/>
-    </row>
-    <row r="18" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AS17" s="17"/>
+      <c r="AT17" s="62"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="17"/>
+      <c r="AZ17" s="18"/>
+      <c r="BA17" s="19"/>
+    </row>
+    <row r="18" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -3098,8 +3434,17 @@
       <c r="AN18" s="58"/>
       <c r="AO18" s="59"/>
       <c r="AP18" s="60"/>
-    </row>
-    <row r="19" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AS18" s="20"/>
+      <c r="AT18" s="21"/>
+      <c r="AU18" s="63"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="20"/>
+      <c r="AZ18" s="21"/>
+      <c r="BA18" s="22"/>
+    </row>
+    <row r="19" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -3142,8 +3487,17 @@
       <c r="AN19" s="43"/>
       <c r="AO19" s="44"/>
       <c r="AP19" s="45"/>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="61"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="16"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="6"/>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>7</v>
       </c>
@@ -3190,8 +3544,17 @@
         <v>5</v>
       </c>
       <c r="AP20" s="51"/>
-    </row>
-    <row r="21" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="17"/>
+      <c r="AW20" s="62"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="8"/>
+      <c r="BA20" s="9"/>
+    </row>
+    <row r="21" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -3234,8 +3597,17 @@
       <c r="AN21" s="55"/>
       <c r="AO21" s="56"/>
       <c r="AP21" s="57"/>
-    </row>
-    <row r="22" spans="1:42" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="20"/>
+      <c r="AW21" s="21"/>
+      <c r="AX21" s="63"/>
+      <c r="AY21" s="11"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="13"/>
+    </row>
+    <row r="22" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="L22" s="1"/>
     </row>
   </sheetData>

--- a/other2/thomas/usaco/USACO21FebGoldPro3CounttheCows/CounttheCows.xlsx
+++ b/other2/thomas/usaco/USACO21FebGoldPro3CounttheCows/CounttheCows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\other2\thomas\usaco\USACO21FebGoldPro3CounttheCows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ADEC0B-A315-408B-8DED-E6322B838B99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA6E033-A4C4-4B34-B080-F104B66E61E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="0" windowWidth="37010" windowHeight="18290" activeTab="1" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
+    <workbookView xWindow="14000" yWindow="0" windowWidth="5630" windowHeight="7790" activeTab="1" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>diff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +86,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,8 +120,37 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -449,16 +502,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,17 +833,162 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="31" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -965,15 +1301,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>3041</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>3936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>173507</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>182451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1022,15 +1358,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1610</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>2506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>182451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1080,15 +1416,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>9124</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>8231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>175295</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>3577</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1790,271 +2126,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>51404</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>54427</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>45357</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>36285</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="直角三角形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8B0597-BDAF-42B3-8E36-7BC11D3008E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7722809" y="3707189"/>
-          <a:ext cx="1064381" cy="1064382"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>6049</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>160263</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>48382</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>51405</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直接连接符 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA3045A-7BA5-4B4D-A550-45FD2162BBE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7499049" y="4181930"/>
-          <a:ext cx="1291166" cy="1318380"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>169130</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>126806</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>2049</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>147097</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="梯形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66CF29AE-E765-4F31-A481-D330B233245C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="13484750">
-          <a:off x="7483725" y="2322092"/>
-          <a:ext cx="2330586" cy="383148"/>
-        </a:xfrm>
-        <a:prstGeom prst="trapezoid">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 102796"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>36286</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>96762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>6048</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>39310</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="直角三角形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76290106-F956-41B9-89FA-38FE8CA7FF46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7886096" y="1375833"/>
-          <a:ext cx="504976" cy="489858"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000">
-            <a:alpha val="29020"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2062,16 +2133,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>50733</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>168931</xdr:rowOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>133941</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>26276</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>175173</xdr:rowOff>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>109483</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>170794</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2086,7 +2157,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10968354" y="3085552"/>
+          <a:off x="12487975" y="2897242"/>
           <a:ext cx="1771060" cy="1832414"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2119,15 +2190,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>52554</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>135761</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>72259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>45983</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>129190</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>59120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2143,7 +2214,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11329278" y="2625397"/>
+          <a:off x="12130692" y="1530569"/>
           <a:ext cx="1250291" cy="1265620"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2179,13 +2250,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>88433</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>84719</xdr:rowOff>
+      <xdr:rowOff>84720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>87586</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>100724</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>122621</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2200,8 +2271,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="592054" y="1543029"/>
-          <a:ext cx="2871980" cy="2937005"/>
+          <a:off x="592054" y="1543030"/>
+          <a:ext cx="3629601" cy="3685867"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2236,23 +2307,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>78828</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>105104</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>78799</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>92602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>101926</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104685</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>77952</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108607</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直接连接符 5">
+        <xdr:cNvPr id="7" name="直接连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7601F33-2675-4C7E-A580-06438E372DFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728CB994-7ED1-48B4-AC2D-B0558D027326}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,15 +2331,18 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10930759" y="1799897"/>
-          <a:ext cx="758822" cy="755012"/>
+          <a:off x="5789420" y="1550912"/>
+          <a:ext cx="2871980" cy="2937005"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FFC000"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:headEnd type="oval" w="med" len="med"/>
           <a:tailEnd type="oval" w="med" len="med"/>
@@ -2653,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3EF6C4-8513-4921-81D3-E9CBC8908F51}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="355" zoomScaleNormal="355" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2756,25 +2830,72 @@
       <c r="N4" s="12"/>
       <c r="O4" s="35"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="32"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H7" s="7"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="36"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34">
+        <v>1</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="33">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="36">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="35">
+        <v>3</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2785,10 +2906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D85526-8EDF-4405-92FF-0835C9A1A112}">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BA23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="AK4" sqref="AK4"/>
+      <selection activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2855,6 +2976,24 @@
       <c r="S2" s="43"/>
       <c r="T2" s="44"/>
       <c r="U2" s="45"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="108"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="45"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -2888,6 +3027,30 @@
         <v>2</v>
       </c>
       <c r="U3" s="51"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="64">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="65"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="51"/>
     </row>
     <row r="4" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -2917,6 +3080,24 @@
       <c r="S4" s="55"/>
       <c r="T4" s="56"/>
       <c r="U4" s="57"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="111"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="57"/>
     </row>
     <row r="5" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -2940,6 +3121,24 @@
       <c r="S5" s="46"/>
       <c r="T5" s="47"/>
       <c r="U5" s="48"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="16"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="48"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -2965,6 +3164,30 @@
       <c r="S6" s="52"/>
       <c r="T6" s="53"/>
       <c r="U6" s="54"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="104">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="88">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="19"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="50">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="52"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="54"/>
     </row>
     <row r="7" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -2988,6 +3211,24 @@
       <c r="S7" s="58"/>
       <c r="T7" s="59"/>
       <c r="U7" s="60"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="22"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="59"/>
+      <c r="AO7" s="60"/>
     </row>
     <row r="8" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -3011,6 +3252,24 @@
       <c r="S8" s="43"/>
       <c r="T8" s="44"/>
       <c r="U8" s="45"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="103"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="69"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="43"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="45"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -3038,6 +3297,32 @@
         <v>5</v>
       </c>
       <c r="U9" s="51"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="106">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="96">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="65"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="50">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="50">
+        <v>5</v>
+      </c>
+      <c r="AO9" s="51"/>
     </row>
     <row r="10" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3061,6 +3346,24 @@
       <c r="S10" s="55"/>
       <c r="T10" s="56"/>
       <c r="U10" s="57"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="99"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="57"/>
     </row>
     <row r="11" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3163,9 +3466,9 @@
       <c r="AN13" s="43"/>
       <c r="AO13" s="44"/>
       <c r="AP13" s="45"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="34"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="62"/>
+      <c r="AU13" s="69"/>
       <c r="AV13" s="14"/>
       <c r="AW13" s="15"/>
       <c r="AX13" s="16"/>
@@ -3220,9 +3523,11 @@
         <v>2</v>
       </c>
       <c r="AP14" s="51"/>
-      <c r="AS14" s="7"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="9"/>
+      <c r="AS14" s="63"/>
+      <c r="AT14" s="64">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="65"/>
       <c r="AV14" s="17"/>
       <c r="AW14" s="18"/>
       <c r="AX14" s="19"/>
@@ -3273,9 +3578,9 @@
       <c r="AN15" s="55"/>
       <c r="AO15" s="56"/>
       <c r="AP15" s="57"/>
-      <c r="AS15" s="36"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="35"/>
+      <c r="AS15" s="66"/>
+      <c r="AT15" s="67"/>
+      <c r="AU15" s="68"/>
       <c r="AV15" s="20"/>
       <c r="AW15" s="21"/>
       <c r="AX15" s="22"/>
@@ -3326,12 +3631,12 @@
       <c r="AN16" s="46"/>
       <c r="AO16" s="47"/>
       <c r="AP16" s="48"/>
-      <c r="AS16" s="61"/>
-      <c r="AT16" s="15"/>
-      <c r="AU16" s="16"/>
-      <c r="AV16" s="4"/>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="6"/>
+      <c r="AS16" s="103"/>
+      <c r="AT16" s="81"/>
+      <c r="AU16" s="82"/>
+      <c r="AV16" s="85"/>
+      <c r="AW16" s="62"/>
+      <c r="AX16" s="69"/>
       <c r="AY16" s="14"/>
       <c r="AZ16" s="15"/>
       <c r="BA16" s="16"/>
@@ -3381,12 +3686,16 @@
       <c r="AN17" s="52"/>
       <c r="AO17" s="53"/>
       <c r="AP17" s="54"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="62"/>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="7"/>
-      <c r="AW17" s="8"/>
-      <c r="AX17" s="9"/>
+      <c r="AS17" s="100"/>
+      <c r="AT17" s="104">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="83"/>
+      <c r="AV17" s="86"/>
+      <c r="AW17" s="88">
+        <v>3</v>
+      </c>
+      <c r="AX17" s="65"/>
       <c r="AY17" s="17"/>
       <c r="AZ17" s="18"/>
       <c r="BA17" s="19"/>
@@ -3434,12 +3743,12 @@
       <c r="AN18" s="58"/>
       <c r="AO18" s="59"/>
       <c r="AP18" s="60"/>
-      <c r="AS18" s="20"/>
-      <c r="AT18" s="21"/>
-      <c r="AU18" s="63"/>
-      <c r="AV18" s="11"/>
-      <c r="AW18" s="12"/>
-      <c r="AX18" s="13"/>
+      <c r="AS18" s="101"/>
+      <c r="AT18" s="102"/>
+      <c r="AU18" s="105"/>
+      <c r="AV18" s="87"/>
+      <c r="AW18" s="89"/>
+      <c r="AX18" s="90"/>
       <c r="AY18" s="20"/>
       <c r="AZ18" s="21"/>
       <c r="BA18" s="22"/>
@@ -3487,15 +3796,15 @@
       <c r="AN19" s="43"/>
       <c r="AO19" s="44"/>
       <c r="AP19" s="45"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="61"/>
-      <c r="AW19" s="15"/>
-      <c r="AX19" s="16"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="5"/>
-      <c r="BA19" s="6"/>
+      <c r="AS19" s="73"/>
+      <c r="AT19" s="74"/>
+      <c r="AU19" s="75"/>
+      <c r="AV19" s="103"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="92"/>
+      <c r="AY19" s="94"/>
+      <c r="AZ19" s="62"/>
+      <c r="BA19" s="69"/>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -3544,15 +3853,19 @@
         <v>5</v>
       </c>
       <c r="AP20" s="51"/>
-      <c r="AS20" s="7"/>
-      <c r="AT20" s="8"/>
-      <c r="AU20" s="9"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="62"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="7"/>
-      <c r="AZ20" s="8"/>
-      <c r="BA20" s="9"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="106">
+        <v>4</v>
+      </c>
+      <c r="AU20" s="77"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="104"/>
+      <c r="AX20" s="93"/>
+      <c r="AY20" s="95"/>
+      <c r="AZ20" s="96">
+        <v>5</v>
+      </c>
+      <c r="BA20" s="65"/>
     </row>
     <row r="21" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -3597,18 +3910,21 @@
       <c r="AN21" s="55"/>
       <c r="AO21" s="56"/>
       <c r="AP21" s="57"/>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="20"/>
-      <c r="AW21" s="21"/>
-      <c r="AX21" s="63"/>
-      <c r="AY21" s="11"/>
-      <c r="AZ21" s="12"/>
-      <c r="BA21" s="13"/>
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="79"/>
+      <c r="AU21" s="80"/>
+      <c r="AV21" s="84"/>
+      <c r="AW21" s="79"/>
+      <c r="AX21" s="105"/>
+      <c r="AY21" s="97"/>
+      <c r="AZ21" s="98"/>
+      <c r="BA21" s="99"/>
     </row>
     <row r="22" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AU23" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3621,10 +3937,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B23B71-1DC1-4023-BDA5-AF5388257871}">
-  <dimension ref="B2:BF30"/>
+  <dimension ref="A2:BF30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AQ35" sqref="AQ35"/>
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3635,7 +3951,7 @@
     <col min="30" max="16384" width="2.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="1">
         <v>0</v>
       </c>
@@ -3718,7 +4034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -3789,7 +4105,7 @@
       <c r="BE3" s="37"/>
       <c r="BF3" s="6"/>
     </row>
-    <row r="4" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -3860,7 +4176,7 @@
       <c r="BE4" s="8"/>
       <c r="BF4" s="39"/>
     </row>
-    <row r="5" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -3931,7 +4247,7 @@
       <c r="BE5" s="8"/>
       <c r="BF5" s="39"/>
     </row>
-    <row r="6" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -3990,7 +4306,7 @@
       <c r="BE6" s="8"/>
       <c r="BF6" s="39"/>
     </row>
-    <row r="7" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -4049,7 +4365,7 @@
       <c r="BE7" s="8"/>
       <c r="BF7" s="39"/>
     </row>
-    <row r="8" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -4108,7 +4424,10 @@
       <c r="BE8" s="8"/>
       <c r="BF8" s="39"/>
     </row>
-    <row r="9" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -4167,7 +4486,7 @@
       <c r="BE9" s="8"/>
       <c r="BF9" s="39"/>
     </row>
-    <row r="10" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -4226,7 +4545,7 @@
       <c r="BE10" s="8"/>
       <c r="BF10" s="39"/>
     </row>
-    <row r="11" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -4285,7 +4604,7 @@
       <c r="BE11" s="40"/>
       <c r="BF11" s="13"/>
     </row>
-    <row r="12" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -4344,7 +4663,7 @@
       <c r="BE12" s="15"/>
       <c r="BF12" s="16"/>
     </row>
-    <row r="13" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -4403,7 +4722,7 @@
       <c r="BE13" s="18"/>
       <c r="BF13" s="19"/>
     </row>
-    <row r="14" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -4462,7 +4781,7 @@
       <c r="BE14" s="18"/>
       <c r="BF14" s="19"/>
     </row>
-    <row r="15" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -4521,7 +4840,7 @@
       <c r="BE15" s="18"/>
       <c r="BF15" s="19"/>
     </row>
-    <row r="16" spans="2:58" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>13</v>
       </c>

--- a/other2/thomas/usaco/USACO21FebGoldPro3CounttheCows/CounttheCows.xlsx
+++ b/other2/thomas/usaco/USACO21FebGoldPro3CounttheCows/CounttheCows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\other2\thomas\usaco\USACO21FebGoldPro3CounttheCows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA6E033-A4C4-4B34-B080-F104B66E61E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1315E025-4A74-4CAD-B75E-E28E1E44AE21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14000" yWindow="0" windowWidth="5630" windowHeight="7790" activeTab="1" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
+    <workbookView xWindow="15400" yWindow="0" windowWidth="5630" windowHeight="7790" activeTab="2" xr2:uid="{A1B670E2-2F1D-420E-859E-64B4349BE0BA}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>diff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,7 +644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,6 +979,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1536,16 +1561,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>92166</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>78558</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>84455</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>92165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>92166</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>84727</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1560,8 +1585,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="817880" y="3271701"/>
-          <a:ext cx="362857" cy="387169"/>
+          <a:off x="265884" y="2632165"/>
+          <a:ext cx="1099366" cy="1109799"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1593,16 +1618,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>87448</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>84365</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>75203</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>73932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>87448</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>90534</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1617,8 +1642,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="994591" y="2715079"/>
-          <a:ext cx="362857" cy="387169"/>
+          <a:off x="2252346" y="618218"/>
+          <a:ext cx="355690" cy="370568"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2126,6 +2151,262 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>55427</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>113393</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AA6130-7418-4DE2-8C27-D570E4473A8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="236856" y="5509171"/>
+          <a:ext cx="420823" cy="414472"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>54976</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>48626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>126548</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>124282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0BC85C1-AF24-47AB-B196-0A27DA02CBB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2232119" y="5491483"/>
+          <a:ext cx="434429" cy="438513"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="oval" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8769</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>23132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175532</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4989</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="直角三角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0028D3-7DE0-46D1-860E-0ABC0A0783DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190198" y="5465989"/>
+          <a:ext cx="529620" cy="526143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="29020"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16480</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>26307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1814</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="直角三角形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DC74B6-B6EB-42D0-9B6C-D1B88DA23D31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2193623" y="5469164"/>
+          <a:ext cx="529620" cy="526143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="29020"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2248,15 +2529,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>88433</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>84720</xdr:rowOff>
+      <xdr:colOff>88653</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>94464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>122621</xdr:rowOff>
+      <xdr:colOff>91966</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91965</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2271,8 +2552,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="592054" y="1543030"/>
-          <a:ext cx="3629601" cy="3685867"/>
+          <a:off x="594463" y="830188"/>
+          <a:ext cx="3681934" cy="3676122"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2308,22 +2589,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>78799</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>92602</xdr:rowOff>
+      <xdr:colOff>86463</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>112638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>77952</xdr:colOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>92951</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>108607</xdr:rowOff>
+      <xdr:rowOff>113314</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接连接符 6">
+        <xdr:cNvPr id="8" name="直接连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728CB994-7ED1-48B4-AC2D-B0558D027326}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14CD584-A1BB-4983-9370-4B6C6F2F8DCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,8 +2612,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5789420" y="1550912"/>
-          <a:ext cx="2871980" cy="2937005"/>
+          <a:off x="5839563" y="836538"/>
+          <a:ext cx="3625988" cy="3620176"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2906,10 +3187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D85526-8EDF-4405-92FF-0835C9A1A112}">
-  <dimension ref="A1:BA23"/>
+  <dimension ref="A1:BA34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="AT3" sqref="AT3"/>
+    <sheetView showGridLines="0" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3926,6 +4207,253 @@
     <row r="23" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AU23" s="72"/>
     </row>
+    <row r="24" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>6</v>
+      </c>
+      <c r="I24" s="2">
+        <v>7</v>
+      </c>
+      <c r="J24" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="34"/>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="33">
+        <v>1</v>
+      </c>
+      <c r="O26" s="112"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="33">
+        <v>2</v>
+      </c>
+      <c r="U26" s="112"/>
+    </row>
+    <row r="27" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="113"/>
+      <c r="U27" s="35"/>
+    </row>
+    <row r="28" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="116"/>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="33">
+        <v>3</v>
+      </c>
+      <c r="R29" s="112"/>
+      <c r="S29" s="117"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="118"/>
+    </row>
+    <row r="30" spans="1:53" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="119"/>
+      <c r="T30" s="120"/>
+      <c r="U30" s="121"/>
+    </row>
+    <row r="31" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>6</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="116"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="34"/>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>7</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="33">
+        <v>4</v>
+      </c>
+      <c r="O32" s="112"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="118"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="33">
+        <v>5</v>
+      </c>
+      <c r="U32" s="112"/>
+    </row>
+    <row r="33" spans="1:21" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>8</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="119"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="121"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="113"/>
+      <c r="U33" s="35"/>
+    </row>
+    <row r="34" spans="1:21" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3937,10 +4465,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B23B71-1DC1-4023-BDA5-AF5388257871}">
-  <dimension ref="A2:BF30"/>
+  <dimension ref="B2:BF30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3951,7 +4479,7 @@
     <col min="30" max="16384" width="2.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="1">
         <v>0</v>
       </c>
@@ -4034,7 +4562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -4105,7 +4633,7 @@
       <c r="BE3" s="37"/>
       <c r="BF3" s="6"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -4176,7 +4704,7 @@
       <c r="BE4" s="8"/>
       <c r="BF4" s="39"/>
     </row>
-    <row r="5" spans="1:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -4247,7 +4775,7 @@
       <c r="BE5" s="8"/>
       <c r="BF5" s="39"/>
     </row>
-    <row r="6" spans="1:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -4306,7 +4834,7 @@
       <c r="BE6" s="8"/>
       <c r="BF6" s="39"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -4365,7 +4893,7 @@
       <c r="BE7" s="8"/>
       <c r="BF7" s="39"/>
     </row>
-    <row r="8" spans="1:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -4424,10 +4952,7 @@
       <c r="BE8" s="8"/>
       <c r="BF8" s="39"/>
     </row>
-    <row r="9" spans="1:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="9" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -4486,7 +5011,7 @@
       <c r="BE9" s="8"/>
       <c r="BF9" s="39"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -4545,7 +5070,7 @@
       <c r="BE10" s="8"/>
       <c r="BF10" s="39"/>
     </row>
-    <row r="11" spans="1:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -4604,7 +5129,7 @@
       <c r="BE11" s="40"/>
       <c r="BF11" s="13"/>
     </row>
-    <row r="12" spans="1:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -4663,7 +5188,7 @@
       <c r="BE12" s="15"/>
       <c r="BF12" s="16"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -4722,7 +5247,7 @@
       <c r="BE13" s="18"/>
       <c r="BF13" s="19"/>
     </row>
-    <row r="14" spans="1:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:58" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -4781,7 +5306,7 @@
       <c r="BE14" s="18"/>
       <c r="BF14" s="19"/>
     </row>
-    <row r="15" spans="1:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:58" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -4840,7 +5365,7 @@
       <c r="BE15" s="18"/>
       <c r="BF15" s="19"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>13</v>
       </c>
